--- a/demo1/dist/Template.xlsx
+++ b/demo1/dist/Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samee\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A05728-B89A-4BA7-89A9-77BA7DF35243}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD453B85-4A3F-441B-B601-065462C94796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13224" windowHeight="5640" xr2:uid="{DC9F6103-5AF4-4A0C-8E8F-6FC3421A5185}"/>
+    <workbookView xWindow="1464" yWindow="1464" windowWidth="15264" windowHeight="8964" xr2:uid="{DC9F6103-5AF4-4A0C-8E8F-6FC3421A5185}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,6 @@
     <t>villa</t>
   </si>
   <si>
-    <t>scopeofwork</t>
-  </si>
-  <si>
     <t>r1</t>
   </si>
   <si>
@@ -67,6 +64,9 @@
   </si>
   <si>
     <t>r2</t>
+  </si>
+  <si>
+    <t>workscope</t>
   </si>
 </sst>
 </file>
@@ -421,7 +421,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -440,133 +440,133 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
       <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
       <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
